--- a/Data/NFL.xlsx
+++ b/Data/NFL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessncanfield/Dropbox/UO Marketing PhD Program/Coursework/Fall 2019/EDLD 610/Final_Project/Final_Project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woock/Documents/edld_610_finalproject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E24D6EB-41B3-794E-818C-ADD4B8BFD18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCACDC5-4B38-9741-8864-8A123909DE04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="460" windowWidth="27240" windowHeight="15740" xr2:uid="{0F256F2F-47D0-6C41-92F5-0F39DB8A32CF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" xr2:uid="{0F256F2F-47D0-6C41-92F5-0F39DB8A32CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC80D98-4AF2-E746-B677-FB9514D9D21E}">
   <dimension ref="A1:T529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="I331" sqref="I331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12347,7 +12347,7 @@
         <v>632554</v>
       </c>
       <c r="I330">
-        <v>790698</v>
+        <v>79069</v>
       </c>
       <c r="J330">
         <v>8</v>
